--- a/NCACY25_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCACY25_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.67957171187803e-09</v>
+        <v>0.02212666727508088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005491459161621379</v>
+        <v>0.002848715691938032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6990414389178183</v>
+        <v>0.4071749823555965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7233214595264665</v>
+        <v>0.9733206482934931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02511687524909223</v>
+        <v>0.002202817955774652</v>
       </c>
       <c r="G2" t="n">
-        <v>9.999999998923984</v>
+        <v>299.9988331883511</v>
       </c>
       <c r="H2" t="n">
-        <v>1.219812516343165e-17</v>
+        <v>0.4187771014641403</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00849569751210829</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.962558748037092e-07</v>
+        <v>0.004395743514142572</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02029689345936729</v>
+        <v>0.02213640806208431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005000000000000001</v>
+        <v>0.003416680096480479</v>
       </c>
       <c r="D3" t="n">
-        <v>3.720167643637417</v>
+        <v>0.9423489676029259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5841564532470602</v>
+        <v>0.8707133125736491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001299208566920996</v>
+        <v>0.002268613761035421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2402478806846864</v>
+        <v>299.9999994887283</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4076258663171302</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005129318964880333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.361225015221864e-07</v>
+        <v>0.004706289017555056</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.1025111241802e-08</v>
+        <v>0.02210114684985533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02653471272627365</v>
+        <v>0.0042953920478992</v>
       </c>
       <c r="D4" t="n">
-        <v>9.403760911625913</v>
+        <v>1.818782553445108</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03234972764815799</v>
+        <v>0.7771010359930474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00665229008890064</v>
+        <v>0.002196698392764541</v>
       </c>
       <c r="G4" t="n">
-        <v>2.50923837789674</v>
+        <v>296.9871801115974</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5698369553422195</v>
+        <v>0.4398758143966763</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005068179205795452</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.47916152689189e-07</v>
+        <v>0.004906729251413475</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02099178952417533</v>
+        <v>0.02238078848440738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005794379956460607</v>
+        <v>0.004419541633859341</v>
       </c>
       <c r="D5" t="n">
-        <v>6.191418951149511</v>
+        <v>9.765106875036306</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6105806250375264</v>
+        <v>0.652985143743385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001800325392405438</v>
+        <v>0.00174691404542977</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1785778820145637</v>
+        <v>0.6794380041010532</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999998737</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005429831401685904</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.320956313365323e-07</v>
+        <v>0.005438845332991794</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02134456209505545</v>
+        <v>0.02272759409018863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006842781756916285</v>
+        <v>0.00556617265437219</v>
       </c>
       <c r="D6" t="n">
-        <v>6.122554520122887</v>
+        <v>7.886267337455894</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6133205303479244</v>
+        <v>0.665306597287001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00187083380567468</v>
+        <v>0.001677570585821346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1691849399972006</v>
+        <v>0.6757472941562336</v>
       </c>
       <c r="H6" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005658607835285505</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.320456515261445e-07</v>
+        <v>0.005691789845449163</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02207780446776181</v>
+        <v>0.02359298748109914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008081828167355748</v>
+        <v>0.002048011897432997</v>
       </c>
       <c r="D7" t="n">
-        <v>5.331276614916006</v>
+        <v>0.499367015819999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6251011651446617</v>
+        <v>0.9999999999996263</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002152571820524935</v>
+        <v>0.00650974514013497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1391740596771606</v>
+        <v>6.288685960855616</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999999999998062</v>
+        <v>0.698708886493556</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006068853398678844</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.318085714159445e-07</v>
+        <v>0.006140993683657186</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02389559611581852</v>
+        <v>0.02553139412961605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00905639399481766</v>
+        <v>0.002893966810273488</v>
       </c>
       <c r="D8" t="n">
-        <v>4.007583049230314</v>
+        <v>0.3215887368059876</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6624129935328179</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003057061441640646</v>
+        <v>0.007415433509662022</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1330427223534074</v>
+        <v>4.588881247483823</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9740765805025536</v>
+        <v>0.734851875526775</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006899917298438022</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.444383527016738e-07</v>
+        <v>0.00697868613270104</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03214959212211291</v>
+        <v>0.03417513093770785</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01032750491225161</v>
+        <v>0.01032728433604648</v>
       </c>
       <c r="D9" t="n">
-        <v>3.781001441622614</v>
+        <v>3.527006811161238</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7017662689151968</v>
+        <v>0.7298799817741467</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006478601019438449</v>
+        <v>0.004315343968473541</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2449825518714782</v>
+        <v>0.1877217685574133</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8321642189324306</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009108170566985613</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.427133540890769e-07</v>
+        <v>0.009156840704575325</v>
       </c>
     </row>
   </sheetData>
